--- a/GameEngine/Assignment1.xlsx
+++ b/GameEngine/Assignment1.xlsx
@@ -238,28 +238,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.4258480000000002</c:v>
+                  <c:v>6.6118920000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3496649999999999</c:v>
+                  <c:v>6.7361909999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3777330000000001</c:v>
+                  <c:v>6.8765280000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5581659999999999</c:v>
+                  <c:v>7.2373950000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9190339999999999</c:v>
+                  <c:v>8.0192739999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.712942</c:v>
+                  <c:v>9.6231290000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.300758</c:v>
+                  <c:v>12.907022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.520497000000001</c:v>
+                  <c:v>19.434712000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,28 +332,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24.919895</c:v>
+                  <c:v>8.2157470000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.656877000000001</c:v>
+                  <c:v>9.5429370000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.361007999999998</c:v>
+                  <c:v>13.552574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.305753000000003</c:v>
+                  <c:v>21.062624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.275400000000005</c:v>
+                  <c:v>35.393068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.413292999999996</c:v>
+                  <c:v>63.179853999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.58672799999999</c:v>
+                  <c:v>109.76782900000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>236.360096</c:v>
+                  <c:v>200.39365000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -383,11 +383,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="328093120"/>
-        <c:axId val="328091944"/>
+        <c:axId val="250235360"/>
+        <c:axId val="250232616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="328093120"/>
+        <c:axId val="250235360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328091944"/>
+        <c:crossAx val="250232616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328091944"/>
+        <c:axId val="250232616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +601,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328093120"/>
+        <c:crossAx val="250235360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -824,28 +824,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.98658327299999993</c:v>
+                  <c:v>9.0112587000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9443773499999999</c:v>
+                  <c:v>0.17752267900000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7652298050000002</c:v>
+                  <c:v>0.32332912800000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3918830189999998</c:v>
+                  <c:v>0.62588833499999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.705076906</c:v>
+                  <c:v>1.2648761549999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.482740276000001</c:v>
+                  <c:v>2.521648833</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.636786528999998</c:v>
+                  <c:v>5.0858960530000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101.139955907</c:v>
+                  <c:v>10.056438851999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,28 +918,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.015074952999999</c:v>
+                  <c:v>0.98212054599999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.99291882</c:v>
+                  <c:v>1.6738671730000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.801337229999994</c:v>
+                  <c:v>3.526620302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.443789056</c:v>
+                  <c:v>7.0831725470000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.64551117899998</c:v>
+                  <c:v>13.423527717000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.135345626</c:v>
+                  <c:v>26.490943512999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>480.03735137500001</c:v>
+                  <c:v>47.693885207000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>938.99053452999999</c:v>
+                  <c:v>93.313192123999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,11 +969,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="417615616"/>
-        <c:axId val="417612872"/>
+        <c:axId val="250235752"/>
+        <c:axId val="250236144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="417615616"/>
+        <c:axId val="250235752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1072,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417612872"/>
+        <c:crossAx val="250236144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417612872"/>
+        <c:axId val="250236144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1187,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417615616"/>
+        <c:crossAx val="250235752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2716,7 +2716,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,14 +2740,14 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>7.4258480000000002</v>
+        <v>6.6118920000000001</v>
       </c>
       <c r="C2">
-        <v>24.919895</v>
+        <v>8.2157470000000004</v>
       </c>
       <c r="D2">
         <f>C2/B2</f>
-        <v>3.3558315494742148</v>
+        <v>1.2425712640194366</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,14 +2755,14 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>7.3496649999999999</v>
+        <v>6.7361909999999998</v>
       </c>
       <c r="C3">
-        <v>28.656877000000001</v>
+        <v>9.5429370000000002</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D9" si="0">C3/B3</f>
-        <v>3.8990725427621533</v>
+        <v>1.4166666295537049</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,14 +2770,14 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>7.3777330000000001</v>
+        <v>6.8765280000000004</v>
       </c>
       <c r="C4">
-        <v>40.361007999999998</v>
+        <v>13.552574</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>5.4706517571183451</v>
+        <v>1.9708454615468736</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,14 +2785,14 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>7.5581659999999999</v>
+        <v>7.2373950000000002</v>
       </c>
       <c r="C5">
-        <v>62.305753000000003</v>
+        <v>21.062624</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>8.2435015319854053</v>
+        <v>2.910249336950657</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2800,14 +2800,14 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>7.9190339999999999</v>
+        <v>8.0192739999999993</v>
       </c>
       <c r="C6">
-        <v>96.275400000000005</v>
+        <v>35.393068</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>12.157467691135055</v>
+        <v>4.4135002744637486</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2815,14 +2815,14 @@
         <v>800</v>
       </c>
       <c r="B7">
-        <v>8.712942</v>
+        <v>9.6231290000000005</v>
       </c>
       <c r="C7">
-        <v>85.413292999999996</v>
+        <v>63.179853999999999</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>9.8030370223972572</v>
+        <v>6.5654169241626086</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,14 +2830,14 @@
         <v>1600</v>
       </c>
       <c r="B8">
-        <v>10.300758</v>
+        <v>12.907022</v>
       </c>
       <c r="C8">
-        <v>147.58672799999999</v>
+        <v>109.76782900000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>14.327754132268712</v>
+        <v>8.5045046797007089</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,20 +2845,20 @@
         <v>3200</v>
       </c>
       <c r="B9">
-        <v>13.520497000000001</v>
+        <v>19.434712000000001</v>
       </c>
       <c r="C9">
-        <v>236.360096</v>
+        <v>200.39365000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>17.481612991001736</v>
+        <v>10.311120123622105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>AVERAGE(D2:D9)</f>
-        <v>9.3423661522678607</v>
+        <v>4.6668593367524807</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2872,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,14 +2896,14 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0.98658327299999993</v>
+        <v>9.0112587000000008E-2</v>
       </c>
       <c r="C2">
-        <v>11.015074952999999</v>
+        <v>0.98212054599999998</v>
       </c>
       <c r="D2">
         <f>C2/B2</f>
-        <v>11.164870978914315</v>
+        <v>10.898816455019762</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,14 +2911,14 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>1.9443773499999999</v>
+        <v>0.17752267900000002</v>
       </c>
       <c r="C3">
-        <v>16.99291882</v>
+        <v>1.6738671730000001</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D9" si="0">C3/B3</f>
-        <v>8.7395169564179511</v>
+        <v>9.4290328561343983</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2926,14 +2926,14 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>3.7652298050000002</v>
+        <v>0.32332912800000002</v>
       </c>
       <c r="C4">
-        <v>35.801337229999994</v>
+        <v>3.526620302</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>9.5084069456950431</v>
+        <v>10.907214960230863</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2941,14 +2941,14 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>6.3918830189999998</v>
+        <v>0.62588833499999996</v>
       </c>
       <c r="C5">
-        <v>70.443789056</v>
+        <v>7.0831725470000002</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>11.020819506021063</v>
+        <v>11.316990828723467</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,14 +2956,14 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>12.705076906</v>
+        <v>1.2648761549999998</v>
       </c>
       <c r="C6">
-        <v>134.64551117899998</v>
+        <v>13.423527717000001</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>10.597772227212047</v>
+        <v>10.612523339883818</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,14 +2971,14 @@
         <v>800</v>
       </c>
       <c r="B7">
-        <v>25.482740276000001</v>
+        <v>2.521648833</v>
       </c>
       <c r="C7">
-        <v>266.135345626</v>
+        <v>26.490943512999998</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>10.443749092268934</v>
+        <v>10.505405497514808</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,14 +2986,14 @@
         <v>1600</v>
       </c>
       <c r="B8">
-        <v>50.636786528999998</v>
+        <v>5.0858960530000008</v>
       </c>
       <c r="C8">
-        <v>480.03735137500001</v>
+        <v>47.693885207000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>9.4800121469019309</v>
+        <v>9.3776759709563802</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,20 +3001,20 @@
         <v>3200</v>
       </c>
       <c r="B9">
-        <v>101.139955907</v>
+        <v>10.056438851999999</v>
       </c>
       <c r="C9">
-        <v>938.99053452999999</v>
+        <v>93.313192123999997</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>9.284071029192642</v>
+        <v>9.2789498844754679</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>AVERAGE(D2:D9)</f>
-        <v>10.029902360327991</v>
+        <v>10.290826224117371</v>
       </c>
     </row>
   </sheetData>
